--- a/Jhimruk Final resutls/Jhimruk Mean Monthly flow_comparison with previous study.xlsx
+++ b/Jhimruk Final resutls/Jhimruk Mean Monthly flow_comparison with previous study.xlsx
@@ -28,12 +28,16 @@
     <sheet name="chaitra" sheetId="14" r:id="rId14"/>
     <sheet name="new_bhadra" sheetId="15" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'All Months'!$A$1:$M$58</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'All Months'!$1:$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
   <si>
     <t>Shrawan</t>
   </si>
@@ -423,12 +427,144 @@
   </si>
   <si>
     <t>Ashar</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>2051/2052</t>
+  </si>
+  <si>
+    <t>2052/2053</t>
+  </si>
+  <si>
+    <t>2053/2054</t>
+  </si>
+  <si>
+    <t>2054/2055</t>
+  </si>
+  <si>
+    <t>2055/2056</t>
+  </si>
+  <si>
+    <t>2056/2057</t>
+  </si>
+  <si>
+    <t>2057/2058</t>
+  </si>
+  <si>
+    <t>2058/2059</t>
+  </si>
+  <si>
+    <t>2059/2060</t>
+  </si>
+  <si>
+    <t>2060/2061</t>
+  </si>
+  <si>
+    <t>2061/2062</t>
+  </si>
+  <si>
+    <t>2062/2063</t>
+  </si>
+  <si>
+    <t>2063/2064</t>
+  </si>
+  <si>
+    <t>2064/2065</t>
+  </si>
+  <si>
+    <t>2065/2066</t>
+  </si>
+  <si>
+    <t>2066/2067</t>
+  </si>
+  <si>
+    <t>2067/2068</t>
+  </si>
+  <si>
+    <t>2068/2069</t>
+  </si>
+  <si>
+    <t>2069/2070</t>
+  </si>
+  <si>
+    <t>2070/2071</t>
+  </si>
+  <si>
+    <t>2071/2072</t>
+  </si>
+  <si>
+    <t>2072/2073</t>
+  </si>
+  <si>
+    <t>2073/2074</t>
+  </si>
+  <si>
+    <t>2074/2075</t>
+  </si>
+  <si>
+    <t>2075/2076</t>
+  </si>
+  <si>
+    <t>2076/2077</t>
+  </si>
+  <si>
+    <t>2077/2078</t>
+  </si>
+  <si>
+    <t>2078/2079</t>
+  </si>
+  <si>
+    <t>2079/2080</t>
+  </si>
+  <si>
+    <t>CALCULATION FORM</t>
+  </si>
+  <si>
+    <t>Job:</t>
+  </si>
+  <si>
+    <t>Jhimruk khola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Subject:</t>
+  </si>
+  <si>
+    <t>Low flow analysis at Jhimruk</t>
+  </si>
+  <si>
+    <t>Job No:</t>
+  </si>
+  <si>
+    <t>Calc. By:</t>
+  </si>
+  <si>
+    <t>Drg no:</t>
+  </si>
+  <si>
+    <t>Chkd. By:</t>
+  </si>
+  <si>
+    <t>Recommended By:</t>
+  </si>
+  <si>
+    <t>Approved By:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +616,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -518,18 +654,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -542,6 +687,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +834,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'All Months'!$P$2:$P$13</c:f>
+              <c:f>'All Months'!$A$43:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -703,7 +878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Months'!$Q$2:$Q$13</c:f>
+              <c:f>'All Months'!$B$43:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -926,474 +1101,12 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.3578083989501313E-2"/>
-                  <c:y val="-0.34317439486730827"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>asoj!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2061</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2062</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2063</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2065</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2066</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2067</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2071</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2073</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2074</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2075</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2076</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2077</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2078</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>asoj!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>30.028064516129039</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.75290322580646</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.073666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.590666666666678</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.182903225806442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73.757866666666658</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.708000000000013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.916666666666657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.403870967741931</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.655666666666647</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.64946666666668</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.343829032258057</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.485516129032259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.892366666666661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>57.386333333333347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.595161290322579</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.239032258064533</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50.331800000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39.759233333333341</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.80583870967742</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34.140419354838713</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.21423333333334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54.539133333333332</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.636774193548391</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.309967741935491</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47.028033333333319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.914733333333317</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45.665645161290328</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>83.805322580645154</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A43B-4A3D-AC64-A28EB4464225}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1971100208"/>
-        <c:axId val="1971100624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1971100208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1971100624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1971100624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1971100208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1855,7 +1568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2317,7 +2030,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2773,7 +2486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3229,7 +2942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3685,7 +3398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4156,381 +3869,6 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Mean Monthly Flow during Updated</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0">
-                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Feasibility study</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37062618595825425"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1097232257732489"/>
-          <c:y val="0.1529718875502008"/>
-          <c:w val="0.84633825895102766"/>
-          <c:h val="0.60501837270341208"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All Months'!$P$2:$P$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Baishakh</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jestha </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ashadh</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Shrawan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bhadra</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ashwin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Kartik</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mangsir</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Poush</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Magh</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Falgun</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Chaitra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'All Months'!$U$2:$U$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.7593861077161286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.60169515751474</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.790421822881925</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73.806980374419453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.177728853684854</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.851510061196258</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.927068927279304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0530812853562175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3162591231347438</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3193824962446783</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6397475342848056</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9779629942504076</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82E4-4BBD-B864-FE757100C322}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1942491904"/>
-        <c:axId val="1942493152"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1942491904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Months</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1942493152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1942493152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Discharge (m3/s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1942491904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
               <a:rPr lang="en-US" sz="1100" b="1">
                 <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
               </a:rPr>
@@ -4616,7 +3954,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'All Months'!$P$2:$P$13</c:f>
+              <c:f>'All Months'!$A$43:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4660,7 +3998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Months'!$Q$2:$Q$13</c:f>
+              <c:f>'All Months'!$B$43:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4722,7 +4060,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'All Months'!$U$2:$U$13</c:f>
+              <c:f>'All Months'!$D$43:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4801,45 +4139,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'All Months'!$R$2:$R$13</c:f>
+              <c:f>'All Months'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5046,7 +4351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5070,6 +4375,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5125,6 +4431,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5490,7 +4797,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5514,6 +4821,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5937,7 +5245,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6393,7 +5701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6849,7 +6157,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7311,7 +6619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7749,20 +7057,482 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3578083989501313E-2"/>
+                  <c:y val="-0.34317439486730827"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>asoj!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>asoj!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>30.028064516129039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.75290322580646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.073666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.590666666666678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.182903225806442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.757866666666658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.708000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.916666666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.403870967741931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.655666666666647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.64946666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.343829032258057</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.485516129032259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.892366666666661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.386333333333347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.595161290322579</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.239032258064533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.331800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.759233333333341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.80583870967742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.140419354838713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.21423333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.539133333333332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.636774193548391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.309967741935491</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.028033333333319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.914733333333317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.665645161290328</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.805322580645154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A43B-4A3D-AC64-A28EB4464225}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1971100208"/>
+        <c:axId val="1971100624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1971100208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1971100624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1971100624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1971100208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7783,20 +7553,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7813,36 +7583,52 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D157A9-4B47-4C14-8C9F-6F1110E8CB1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1781175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8566,1544 +8352,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="18">
+        <v>932045</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <v>53.261935483870971</v>
+      </c>
+      <c r="D11" s="9">
+        <v>30.028064516129039</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10.833033333333336</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7.5075862068965495</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6.1473333333333331</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4.6734482758620688</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4.3733333333333331</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.8119999999999989</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2.2465833333333332</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
+        <v>43.020937499999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="9">
+        <v>65.76906249999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>69.926451612903207</v>
+      </c>
+      <c r="D12" s="9">
+        <v>26.752903225806456</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10.511666666666667</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8.2096551724137914</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6.1170000000000009</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6.6275862068965523</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6.1359999999999992</v>
+      </c>
+      <c r="J12" s="9">
+        <v>3.847</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.0877419354838711</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2.8166562500000003</v>
+      </c>
+      <c r="M12" s="9">
+        <v>28.786967741935481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="9">
+        <v>97.308125000000032</v>
+      </c>
+      <c r="C13" s="9">
+        <v>92.848387096774189</v>
+      </c>
+      <c r="D13" s="9">
+        <v>50.073666666666668</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20.305</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9.4963333333333324</v>
+      </c>
+      <c r="G13" s="9">
+        <v>6.9452333333333343</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6.3124137931034481</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.3993333333333338</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4.4883333333333333</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.9435483870967749</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3.1909375000000004</v>
+      </c>
+      <c r="M13" s="9">
+        <v>46.505806451612898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="9">
+        <v>125.20281250000002</v>
+      </c>
+      <c r="C14" s="9">
+        <v>70.750967741935469</v>
+      </c>
+      <c r="D14" s="9">
+        <v>34.590666666666678</v>
+      </c>
+      <c r="E14" s="9">
+        <v>14.878333333333334</v>
+      </c>
+      <c r="F14" s="9">
+        <v>11.494000000000002</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8.0400000000000027</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5.5073333333333334</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5.0917241379310347</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5.0993333333333331</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4.6358064516129041</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3.9825806451612897</v>
+      </c>
+      <c r="M14" s="9">
+        <v>68.406562500000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="9">
+        <v>96.429999999999978</v>
+      </c>
+      <c r="C15" s="9">
+        <v>123.96838709677422</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45.182903225806442</v>
+      </c>
+      <c r="E15" s="9">
+        <v>18.232000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>11.387931034482754</v>
+      </c>
+      <c r="G15" s="9">
+        <v>7.0836666666666668</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4.5113333333333339</v>
+      </c>
+      <c r="J15" s="9">
+        <v>3.7753333333333332</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2.3164516129032258</v>
+      </c>
+      <c r="L15" s="9">
+        <v>9.9458064516129046</v>
+      </c>
+      <c r="M15" s="9">
+        <v>38.919687499999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="9">
+        <v>60.746129032258061</v>
+      </c>
+      <c r="C16" s="9">
+        <v>110.90968750000002</v>
+      </c>
+      <c r="D16" s="9">
+        <v>73.757866666666658</v>
+      </c>
+      <c r="E16" s="9">
+        <v>20.939166666666669</v>
+      </c>
+      <c r="F16" s="9">
+        <v>10.40344827586207</v>
+      </c>
+      <c r="G16" s="9">
+        <v>7.5724333333333336</v>
+      </c>
+      <c r="H16" s="9">
+        <v>6.4764827586206888</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.2913333333333323</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3.9739999999999993</v>
+      </c>
+      <c r="K16" s="9">
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="L16" s="9">
+        <v>25.826562499999998</v>
+      </c>
+      <c r="M16" s="9">
+        <v>57.251935483870973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="9">
+        <v>90.971875000000011</v>
+      </c>
+      <c r="C17" s="9">
+        <v>117.17419354838711</v>
+      </c>
+      <c r="D17" s="9">
+        <v>64.708000000000013</v>
+      </c>
+      <c r="E17" s="9">
+        <v>17.108666666666661</v>
+      </c>
+      <c r="F17" s="9">
+        <v>10.143666666666665</v>
+      </c>
+      <c r="G17" s="9">
+        <v>7.3424137931034474</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6.0462068965517251</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5.3056666666666672</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4.1206451612903221</v>
+      </c>
+      <c r="K17" s="9">
+        <v>5.3246666666666673</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10.667187499999999</v>
+      </c>
+      <c r="M17" s="9">
+        <v>39.447741935483869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="9">
+        <v>81.160656250000017</v>
+      </c>
+      <c r="C18" s="9">
+        <v>113.73548387096771</v>
+      </c>
+      <c r="D18" s="9">
+        <v>35.916666666666664</v>
+      </c>
+      <c r="E18" s="9">
+        <v>15.040899999999997</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8.6676666666666655</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6.7065517241379311</v>
+      </c>
+      <c r="H18" s="9">
+        <v>6.6029999999999989</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.4186206896551719</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.7451612903225797</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.0913870967741923</v>
+      </c>
+      <c r="L18" s="9">
+        <v>5.8921612903225808</v>
+      </c>
+      <c r="M18" s="9">
+        <v>23.502031249999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="9">
+        <v>55.829129032258081</v>
+      </c>
+      <c r="C19" s="9">
+        <v>65.01783870967742</v>
+      </c>
+      <c r="D19" s="9">
+        <v>30.403870967741931</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13.655666666666662</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7.0951724137931071</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4.5953333333333326</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4.4162068965517243</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5.4010000000000007</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9">
+        <v>45.838774193548382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="9">
+        <v>94.426562499999974</v>
+      </c>
+      <c r="C20" s="9">
+        <v>92.61</v>
+      </c>
+      <c r="D20" s="9">
+        <v>55.655666666666654</v>
+      </c>
+      <c r="E20" s="9">
+        <v>15.020666666666669</v>
+      </c>
+      <c r="F20" s="9">
+        <v>8.6782758620689648</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7.2203333333333335</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6.559310344827586</v>
+      </c>
+      <c r="I20" s="9">
+        <v>4.4633333333333329</v>
+      </c>
+      <c r="J20" s="9">
+        <v>4.214999999999999</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.9296774193548392</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.4899999999999993</v>
+      </c>
+      <c r="M20" s="9">
+        <v>24.204838709677421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="9">
+        <v>50.565531250000006</v>
+      </c>
+      <c r="C21" s="9">
+        <v>34.16538709677419</v>
+      </c>
+      <c r="D21" s="9">
+        <v>31.649466666666676</v>
+      </c>
+      <c r="E21" s="9">
+        <v>14.043366666666666</v>
+      </c>
+      <c r="F21" s="9">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6.3729655172413802</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.1764137931034488</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.6343333333333332</v>
+      </c>
+      <c r="J21" s="9">
+        <v>3.6935483870967736</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2.4313225806451615</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1.8282631578947366</v>
+      </c>
+      <c r="M21" s="9">
+        <v>19.973451612903222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="9">
+        <v>61.740312500000002</v>
+      </c>
+      <c r="C22" s="9">
+        <v>83.78400000000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>33.343829032258064</v>
+      </c>
+      <c r="E22" s="9">
+        <v>17.109793103448276</v>
+      </c>
+      <c r="F22" s="9">
+        <v>9.2541666666666647</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.3752758620689649</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4.9698666666666664</v>
+      </c>
+      <c r="I22" s="9">
+        <v>4.1592413793103447</v>
+      </c>
+      <c r="J22" s="9">
+        <v>3.7062580645161294</v>
+      </c>
+      <c r="K22" s="9">
+        <v>4.6788387096774189</v>
+      </c>
+      <c r="L22" s="9">
+        <v>11.041129032258064</v>
+      </c>
+      <c r="M22" s="9">
+        <v>33.470865625000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="9">
+        <v>53.568516129032275</v>
+      </c>
+      <c r="C23" s="9">
+        <v>40.965032258064511</v>
+      </c>
+      <c r="D23" s="9">
+        <v>26.485516129032259</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10.404533333333335</v>
+      </c>
+      <c r="F23" s="9">
+        <v>7.275206896551726</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5.7042333333333346</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.6288965517241376</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.7288666666666677</v>
+      </c>
+      <c r="J23" s="9">
+        <v>3.8978666666666664</v>
+      </c>
+      <c r="K23" s="9">
+        <v>3.8088709677419366</v>
+      </c>
+      <c r="L23" s="9">
+        <v>4.0191290322580651</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19.369968750000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="9">
+        <v>68.523187500000006</v>
+      </c>
+      <c r="C24" s="9">
+        <v>90.875096774193565</v>
+      </c>
+      <c r="D24" s="9">
+        <v>40.892366666666661</v>
+      </c>
+      <c r="E24" s="9">
+        <v>17.223933333333335</v>
+      </c>
+      <c r="F24" s="9">
+        <v>9.44551724137931</v>
+      </c>
+      <c r="G24" s="9">
+        <v>6.8260333333333358</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5.5862068965517251</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4.4305333333333321</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3.9701666666666662</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.7655806451612901</v>
+      </c>
+      <c r="L24" s="9">
+        <v>6.7753437499999993</v>
+      </c>
+      <c r="M24" s="9">
+        <v>41.596790322580645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="9">
+        <v>67.090470052083347</v>
+      </c>
+      <c r="C25" s="9">
+        <v>66.957666666666668</v>
+      </c>
+      <c r="D25" s="9">
+        <v>57.386333333333347</v>
+      </c>
+      <c r="E25" s="9">
+        <v>16.363866666666663</v>
+      </c>
+      <c r="F25" s="9">
+        <v>8.3907666666666643</v>
+      </c>
+      <c r="G25" s="9">
+        <v>6.3244827586206904</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.7070689655172435</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3.7731724137931022</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3.1561290322580637</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1.6367096774193548</v>
+      </c>
+      <c r="L25" s="9">
+        <v>4.9864838709677404</v>
+      </c>
+      <c r="M25" s="9">
+        <v>14.91935483870968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="9">
+        <v>71.930312499999971</v>
+      </c>
+      <c r="C26" s="9">
+        <v>68.337290322580628</v>
+      </c>
+      <c r="D26" s="9">
+        <v>40.595161290322579</v>
+      </c>
+      <c r="E26" s="9">
+        <v>18.739655172413791</v>
+      </c>
+      <c r="F26" s="9">
+        <v>8.8246666666666691</v>
+      </c>
+      <c r="G26" s="9">
+        <v>6.7343333333333337</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.2389655172413798</v>
+      </c>
+      <c r="I26" s="9">
+        <v>4.2653448275862074</v>
+      </c>
+      <c r="J26" s="9">
+        <v>3.1219354838709688</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.9016129032258058</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.6165806451612905</v>
+      </c>
+      <c r="M26" s="9">
+        <v>19.00359375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="9">
+        <v>74.613806451612916</v>
+      </c>
+      <c r="C27" s="9">
+        <v>74.597451612903228</v>
+      </c>
+      <c r="D27" s="9">
+        <v>55.239032258064533</v>
+      </c>
+      <c r="E27" s="9">
+        <v>17.745000000000005</v>
+      </c>
+      <c r="F27" s="9">
+        <v>9.3204827586206864</v>
+      </c>
+      <c r="G27" s="9">
+        <v>6.6146666666666656</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5.0431034482758621</v>
+      </c>
+      <c r="I27" s="9">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="J27" s="9">
+        <v>3.4662666666666673</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2.6076129032258062</v>
+      </c>
+      <c r="L27" s="9">
+        <v>5.5824193548387102</v>
+      </c>
+      <c r="M27" s="9">
+        <v>36.650281249999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="9">
+        <v>68.271874999999994</v>
+      </c>
+      <c r="C28" s="9">
+        <v>70.300648387096786</v>
+      </c>
+      <c r="D28" s="9">
+        <v>50.331800000000001</v>
+      </c>
+      <c r="E28" s="9">
+        <v>16.4087</v>
+      </c>
+      <c r="F28" s="9">
+        <v>8.6084137931034483</v>
+      </c>
+      <c r="G28" s="9">
+        <v>6.8869333333333334</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5.7915172413793092</v>
+      </c>
+      <c r="I28" s="9">
+        <v>4.1528666666666663</v>
+      </c>
+      <c r="J28" s="9">
+        <v>3.6642000000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2.0742258064516128</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1.5539374999999997</v>
+      </c>
+      <c r="M28" s="9">
+        <v>19.604129032258065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="9">
+        <v>64.819249999999997</v>
+      </c>
+      <c r="C29" s="9">
+        <v>65.475225806451604</v>
+      </c>
+      <c r="D29" s="9">
+        <v>39.759233333333341</v>
+      </c>
+      <c r="E29" s="9">
+        <v>13.717733333333333</v>
+      </c>
+      <c r="F29" s="9">
+        <v>7.6434333333333369</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5.7699655172413786</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5.6343793103448272</v>
+      </c>
+      <c r="I29" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="J29" s="9">
+        <v>3.0084193548387095</v>
+      </c>
+      <c r="K29" s="9">
+        <v>3.3345161290322585</v>
+      </c>
+      <c r="L29" s="9">
+        <v>11.669774193548385</v>
+      </c>
+      <c r="M29" s="9">
+        <v>70.99464516129035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="9">
+        <v>110.64565624999999</v>
+      </c>
+      <c r="C30" s="9">
+        <v>76.755193548387084</v>
+      </c>
+      <c r="D30" s="9">
+        <v>30.805838709677424</v>
+      </c>
+      <c r="E30" s="9">
+        <v>18.603137931034478</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9.7732666666666663</v>
+      </c>
+      <c r="G30" s="9">
+        <v>7.133700000000001</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6.5141724137931005</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5.4528333333333334</v>
+      </c>
+      <c r="J30" s="9">
+        <v>3.9568999999999983</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2.419451612903226</v>
+      </c>
+      <c r="L30" s="9">
+        <v>3.7739032258064515</v>
+      </c>
+      <c r="M30" s="9">
+        <v>20.758343750000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="9">
+        <v>73.940290322580637</v>
+      </c>
+      <c r="C31" s="9">
+        <v>59.781000000000006</v>
+      </c>
+      <c r="D31" s="9">
+        <v>34.140419354838713</v>
+      </c>
+      <c r="E31" s="9">
+        <v>16.520866666666667</v>
+      </c>
+      <c r="F31" s="9">
+        <v>9.0616206896551716</v>
+      </c>
+      <c r="G31" s="9">
+        <v>8.2641666666666662</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6.0609999999999999</v>
+      </c>
+      <c r="I31" s="9">
+        <v>5.6435333333333348</v>
+      </c>
+      <c r="J31" s="9">
+        <v>5.0915666666666661</v>
+      </c>
+      <c r="K31" s="9">
+        <v>4.7670322580645177</v>
+      </c>
+      <c r="L31" s="9">
+        <v>2.6033125000000004</v>
+      </c>
+      <c r="M31" s="9">
+        <v>18.765677419354837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="9">
+        <v>67.385406250000003</v>
+      </c>
+      <c r="C32" s="9">
+        <v>58.640032258064515</v>
+      </c>
+      <c r="D32" s="9">
+        <v>35.21423333333334</v>
+      </c>
+      <c r="E32" s="9">
+        <v>12.8948</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7.8916551724137944</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5.9090333333333351</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5.2724137931034507</v>
+      </c>
+      <c r="I32" s="9">
+        <v>3.9391333333333325</v>
+      </c>
+      <c r="J32" s="9">
+        <v>3.2854999999999999</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2.5699677419354834</v>
+      </c>
+      <c r="L32" s="9">
+        <v>5.4387499999999998</v>
+      </c>
+      <c r="M32" s="9">
+        <v>44.828580645161296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="9">
+        <v>130.71284374999999</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44.635580645161298</v>
+      </c>
+      <c r="D33" s="9">
+        <v>54.539133333333332</v>
+      </c>
+      <c r="E33" s="9">
+        <v>22.448299999999993</v>
+      </c>
+      <c r="F33" s="9">
+        <v>10.109499999999997</v>
+      </c>
+      <c r="G33" s="9">
+        <v>6.9718965517241376</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5.7861379310344816</v>
+      </c>
+      <c r="I33" s="9">
+        <v>4.8101290322580645</v>
+      </c>
+      <c r="J33" s="9">
+        <v>4.1911290322580648</v>
+      </c>
+      <c r="K33" s="9">
+        <v>5.0850967741935467</v>
+      </c>
+      <c r="L33" s="9">
+        <v>6.3417741935483862</v>
+      </c>
+      <c r="M33" s="9">
+        <v>55.599935483870965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="9">
+        <v>68.643062500000013</v>
+      </c>
+      <c r="C34" s="9">
+        <v>57.671322580645153</v>
+      </c>
+      <c r="D34" s="9">
+        <v>39.636774193548391</v>
+      </c>
+      <c r="E34" s="9">
+        <v>13.718199999999998</v>
+      </c>
+      <c r="F34" s="9">
+        <v>7.6512068965517228</v>
+      </c>
+      <c r="G34" s="9">
+        <v>5.6863666666666663</v>
+      </c>
+      <c r="H34" s="9">
+        <v>4.8135862068965514</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3.7614999999999998</v>
+      </c>
+      <c r="J34" s="9">
+        <v>4.2008333333333328</v>
+      </c>
+      <c r="K34" s="9">
+        <v>2.6687096774193542</v>
+      </c>
+      <c r="L34" s="9">
+        <v>3.5380000000000003</v>
+      </c>
+      <c r="M34" s="9">
+        <v>9.4121249999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="9">
+        <v>48.653387096774196</v>
+      </c>
+      <c r="C35" s="9">
+        <v>64.625967741935469</v>
+      </c>
+      <c r="D35" s="9">
+        <v>23.309967741935488</v>
+      </c>
+      <c r="E35" s="9">
+        <v>10.546733333333332</v>
+      </c>
+      <c r="F35" s="9">
+        <v>6.6558965517241386</v>
+      </c>
+      <c r="G35" s="9">
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="H35" s="9">
+        <v>6.12351724137931</v>
+      </c>
+      <c r="I35" s="9">
+        <v>5.4975000000000005</v>
+      </c>
+      <c r="J35" s="9">
+        <v>4.2669666666666659</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2.863967741935483</v>
+      </c>
+      <c r="L35" s="9">
+        <v>3.1744062499999992</v>
+      </c>
+      <c r="M35" s="9">
+        <v>14.810838709677418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="9">
+        <v>41.2280625</v>
+      </c>
+      <c r="C36" s="9">
+        <v>63.799258064516131</v>
+      </c>
+      <c r="D36" s="9">
+        <v>47.028033333333319</v>
+      </c>
+      <c r="E36" s="9">
+        <v>15.196533333333337</v>
+      </c>
+      <c r="F36" s="9">
+        <v>8.1431666666666658</v>
+      </c>
+      <c r="G36" s="9">
+        <v>6.3187931034482752</v>
+      </c>
+      <c r="H36" s="9">
+        <v>6.0484137931034478</v>
+      </c>
+      <c r="I36" s="9">
+        <v>5.3208666666666655</v>
+      </c>
+      <c r="J36" s="9">
+        <v>4.8971</v>
+      </c>
+      <c r="K36" s="9">
+        <v>8.2467741935483865</v>
+      </c>
+      <c r="L36" s="9">
+        <v>8.8260312499999998</v>
+      </c>
+      <c r="M36" s="9">
+        <v>73.217903225806452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="9">
+        <v>83.259031249999992</v>
+      </c>
+      <c r="C37" s="9">
+        <v>81.706580645161324</v>
+      </c>
+      <c r="D37" s="9">
+        <v>56.914733333333324</v>
+      </c>
+      <c r="E37" s="9">
+        <v>16.99123333333333</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8.4158200000000019</v>
+      </c>
+      <c r="G37" s="9">
+        <v>6.1162758620689663</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4.8081000000000005</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3.7779655172413791</v>
+      </c>
+      <c r="J37" s="9">
+        <v>3.0910322580645162</v>
+      </c>
+      <c r="K37" s="9">
+        <v>5.307483870967741</v>
+      </c>
+      <c r="L37" s="9">
+        <v>8.0459999999999994</v>
+      </c>
+      <c r="M37" s="9">
+        <v>56.021225806451611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="9">
+        <v>73.540187500000002</v>
+      </c>
+      <c r="C38" s="9">
+        <v>104.51203225806452</v>
+      </c>
+      <c r="D38" s="9">
+        <v>45.665645161290328</v>
+      </c>
+      <c r="E38" s="9">
+        <v>39.51700000000001</v>
+      </c>
+      <c r="F38" s="9">
+        <v>14.676586206896548</v>
+      </c>
+      <c r="G38" s="9">
+        <v>9.4721666666666628</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8.0347586206896562</v>
+      </c>
+      <c r="I38" s="9">
+        <v>5.8133666666666661</v>
+      </c>
+      <c r="J38" s="9">
+        <v>4.210700000000001</v>
+      </c>
+      <c r="K38" s="9">
+        <v>5.4619354838709686</v>
+      </c>
+      <c r="L38" s="9">
+        <v>7.3120000000000012</v>
+      </c>
+      <c r="M38" s="9">
+        <v>29.324718750000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="9">
+        <v>53.415225806451602</v>
+      </c>
+      <c r="C39" s="9">
+        <v>54.419387096774194</v>
+      </c>
+      <c r="D39" s="9">
+        <v>83.805322580645154</v>
+      </c>
+      <c r="E39" s="9">
+        <v>27.691099999999999</v>
+      </c>
+      <c r="F39" s="9">
+        <v>10.800586206896551</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="22">
+        <f>AVERAGE(B11:B39)</f>
+        <v>75.013955943680386</v>
+      </c>
+      <c r="C40" s="22">
+        <f t="shared" ref="C40:M40" si="0">AVERAGE(C11:C39)</f>
+        <v>74.903706428439023</v>
+      </c>
+      <c r="D40" s="22">
+        <f t="shared" si="0"/>
+        <v>43.924590174267706</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="0"/>
+        <v>16.979640903686089</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="0"/>
+        <v>9.0721618866428848</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="0"/>
+        <v>6.6633066912972074</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="0"/>
+        <v>5.7210895320197039</v>
+      </c>
+      <c r="I40" s="22">
+        <f t="shared" si="0"/>
+        <v>4.8134951665872121</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="0"/>
+        <v>3.9982712863401026</v>
+      </c>
+      <c r="K40" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6901323178016732</v>
+      </c>
+      <c r="L40" s="22">
+        <f t="shared" si="0"/>
+        <v>6.3822742343607173</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="0"/>
+        <v>36.221704014256908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2051</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>66.044800000000009</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30.028064516129039</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10.83303333333334</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7.5075862068965504</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6.1473333333333331</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4.6734482758620688</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4.3733333333333331</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.8119999999999989</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="P2" s="7" t="s">
+    <row r="43" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="B43" s="6">
         <v>3.6901323178016732</v>
       </c>
-      <c r="R2">
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3.7593861077161286</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="6">
+        <v>6.3822742343607173</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10.60169515751474</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6">
+        <v>36.221704014256908</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="6">
+        <v>39.790421822881925</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6">
+        <v>75.013955943680386</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>73.806980374419453</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>75.34449486002967</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>77.177728853684854</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6">
+        <v>43.924590174267713</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>48.851510061196258</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <v>16.979640903686089</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>19.927068927279304</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <v>9.0721618866428848</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>9.0530812853562175</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6.6633066912972074</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>6.3162591231347438</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6">
+        <v>5.7210895320197039</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5.3193824962446783</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="8">
-        <v>3.7593861077161286</v>
-      </c>
-      <c r="V2" s="2">
-        <f>Q2-U2</f>
-        <v>-6.925378991445541E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2052</v>
-      </c>
-      <c r="B3" s="2">
-        <v>65.76906249999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>69.926451612903207</v>
-      </c>
-      <c r="D3" s="2">
-        <v>26.75290322580646</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10.51166666666667</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8.2096551724137914</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.1170000000000009</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.6275862068965523</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6.1359999999999992</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3.847</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.2465833333333332</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>43.020937500000002</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>6.3822742343607173</v>
-      </c>
-      <c r="R3">
-        <f>R2</f>
+      <c r="B53" s="6">
+        <v>4.8134951665872121</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="8">
-        <v>10.60169515751474</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" ref="V3:V13" si="0">Q3-U3</f>
-        <v>-4.219420923154023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2053</v>
-      </c>
-      <c r="B4" s="2">
-        <v>97.308125000000032</v>
-      </c>
-      <c r="C4" s="2">
-        <v>92.848387096774189</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50.073666666666668</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20.305</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9.4963333333333324</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.9452333333333343</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.3124137931034481</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.3993333333333338</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4.4883333333333333</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2.0877419354838711</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.8166562499999999</v>
-      </c>
-      <c r="M4" s="2">
-        <v>28.786967741935481</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>36.221704014256908</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R13" si="1">R3</f>
-        <v>7</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" s="8">
-        <v>39.790421822881925</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.5687178086250171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2054</v>
-      </c>
-      <c r="B5" s="2">
-        <v>125.20281249999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>70.750967741935469</v>
-      </c>
-      <c r="D5" s="2">
-        <v>34.590666666666678</v>
-      </c>
-      <c r="E5" s="2">
-        <v>14.87833333333333</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.494</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8.0400000000000027</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.5073333333333334</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5.0917241379310347</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.0993333333333331</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.9435483870967749</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3.1909375</v>
-      </c>
-      <c r="M5" s="2">
-        <v>46.505806451612898</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>75.013955943680386</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>73.806980374419453</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2069755692609334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2055</v>
-      </c>
-      <c r="B6" s="2">
-        <v>96.429999999999978</v>
-      </c>
-      <c r="C6" s="2">
-        <v>123.96838709677419</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45.182903225806442</v>
-      </c>
-      <c r="E6" s="2">
-        <v>18.231999999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11.387931034482749</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.0836666666666668</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5.7299999999999986</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.5113333333333339</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3.7753333333333332</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4.6358064516129041</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3.9825806451612902</v>
-      </c>
-      <c r="M6" s="2">
-        <v>68.406562500000021</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>75.34449486002967</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8">
-        <v>77.177728853684854</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.8332339936551847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2056</v>
-      </c>
-      <c r="B7" s="2">
-        <v>60.746129032258061</v>
-      </c>
-      <c r="C7" s="2">
-        <v>110.9096875</v>
-      </c>
-      <c r="D7" s="2">
-        <v>73.757866666666658</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20.939166666666669</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.40344827586207</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.5724333333333336</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6.4764827586206888</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.2913333333333323</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.9739999999999989</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.3164516129032262</v>
-      </c>
-      <c r="L7" s="2">
-        <v>9.9458064516129046</v>
-      </c>
-      <c r="M7" s="2">
-        <v>38.919687499999988</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>43.924590174267713</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="8">
-        <v>48.851510061196258</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.9269198869285447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2057</v>
-      </c>
-      <c r="B8" s="2">
-        <v>90.971875000000011</v>
-      </c>
-      <c r="C8" s="2">
-        <v>117.17419354838709</v>
-      </c>
-      <c r="D8" s="2">
-        <v>64.708000000000013</v>
-      </c>
-      <c r="E8" s="2">
-        <v>17.108666666666661</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10.143666666666659</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7.3424137931034474</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.0462068965517251</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5.3056666666666672</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4.1206451612903221</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5.4279999999999999</v>
-      </c>
-      <c r="L8" s="2">
-        <v>25.826562500000001</v>
-      </c>
-      <c r="M8" s="2">
-        <v>57.251935483870973</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>16.979640903686089</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="8">
-        <v>19.927068927279304</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.9474280235932149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2058</v>
-      </c>
-      <c r="B9" s="2">
-        <v>81.160656250000017</v>
-      </c>
-      <c r="C9" s="2">
-        <v>113.7354838709677</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35.916666666666657</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15.040900000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8.6676666666666655</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6.7065517241379311</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6.6029999999999989</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5.4186206896551719</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6.7451612903225797</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5.3246666666666673</v>
-      </c>
-      <c r="L9" s="2">
-        <v>10.667187500000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>39.447741935483869</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>9.0721618866428848</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="8">
-        <v>9.0530812853562175</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9080601286667331E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2059</v>
-      </c>
-      <c r="B10" s="2">
-        <v>55.829129032258081</v>
-      </c>
-      <c r="C10" s="2">
-        <v>65.01783870967742</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30.403870967741931</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13.65566666666666</v>
-      </c>
-      <c r="F10" s="2">
-        <v>7.0951724137931071</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4.5953333333333326</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.4162068965517243</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5.4010000000000007</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>6.0913870967741923</v>
-      </c>
-      <c r="L10" s="2">
-        <v>5.8921612903225808</v>
-      </c>
-      <c r="M10" s="2">
-        <v>23.502031249999991</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>6.6633066912972074</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="8">
-        <v>6.3162591231347438</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34704756816246363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2060</v>
-      </c>
-      <c r="B11" s="2">
-        <v>94.426562499999974</v>
-      </c>
-      <c r="C11" s="2">
-        <v>92.61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>55.655666666666647</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15.020666666666671</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8.6782758620689648</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7.2203333333333326</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.559310344827586</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.4633333333333329</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4.214999999999999</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>45.838774193548382</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>5.7210895320197039</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="8">
-        <v>5.3193824962446783</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.40170703577502564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2061</v>
-      </c>
-      <c r="B12" s="2">
-        <v>50.565531250000006</v>
-      </c>
-      <c r="C12" s="2">
-        <v>34.16538709677419</v>
-      </c>
-      <c r="D12" s="2">
-        <v>31.64946666666668</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14.043366666666669</v>
-      </c>
-      <c r="F12" s="2">
-        <v>8.0670000000000002</v>
-      </c>
-      <c r="G12" s="2">
-        <v>6.3729655172413802</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6.1764137931034488</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4.6343333333333332</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3.693548387096774</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.9296774193548392</v>
-      </c>
-      <c r="L12" s="2">
-        <v>4.4899999999999993</v>
-      </c>
-      <c r="M12" s="2">
-        <v>24.204838709677421</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>4.8134951665872121</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="D53" s="6">
         <v>4.6397475342848056</v>
       </c>
-      <c r="V12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17374763230240653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2062</v>
-      </c>
-      <c r="B13" s="2">
-        <v>61.740312500000002</v>
-      </c>
-      <c r="C13" s="2">
-        <v>83.78400000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33.343829032258057</v>
-      </c>
-      <c r="E13" s="2">
-        <v>17.109793103448279</v>
-      </c>
-      <c r="F13" s="2">
-        <v>9.2541666666666647</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6.3752758620689649</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.9698666666666664</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4.1592413793103447</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3.7062580645161289</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.431322580645161</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1.828263157894737</v>
-      </c>
-      <c r="M13" s="2">
-        <v>19.973451612903219</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="B54" s="6">
         <v>3.9982712863401031</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="8">
+      <c r="D54" s="6">
         <v>3.9779629942504076</v>
       </c>
-      <c r="V13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0308292089695534E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2063</v>
-      </c>
-      <c r="B14" s="2">
-        <v>53.568516129032282</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40.965032258064511</v>
-      </c>
-      <c r="D14" s="2">
-        <v>26.485516129032259</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10.40453333333333</v>
-      </c>
-      <c r="F14" s="2">
-        <v>7.275206896551726</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.7042333333333346</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4.6288965517241376</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.7288666666666677</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3.8978666666666659</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4.6788387096774189</v>
-      </c>
-      <c r="L14" s="2">
-        <v>11.041129032258061</v>
-      </c>
-      <c r="M14" s="2">
-        <v>33.470865625000002</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>AVERAGE(Q2:Q13)</f>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="11">
+        <f>AVERAGE(B43:B54)</f>
         <v>23.985426417580854</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2064</v>
-      </c>
-      <c r="B15" s="2">
-        <v>68.523187500000006</v>
-      </c>
-      <c r="C15" s="2">
-        <v>90.875096774193565</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40.892366666666661</v>
-      </c>
-      <c r="E15" s="2">
-        <v>17.223933333333331</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9.44551724137931</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6.8260333333333358</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.5862068965517251</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.4305333333333321</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3.9701666666666662</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3.808870967741937</v>
-      </c>
-      <c r="L15" s="2">
-        <v>4.0191290322580651</v>
-      </c>
-      <c r="M15" s="2">
-        <v>19.369968750000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2065</v>
-      </c>
-      <c r="B16" s="2">
-        <v>67.090470052083347</v>
-      </c>
-      <c r="C16" s="2">
-        <v>66.957666666666668</v>
-      </c>
-      <c r="D16" s="2">
-        <v>57.386333333333347</v>
-      </c>
-      <c r="E16" s="2">
-        <v>16.363866666666659</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8.3907666666666643</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6.3244827586206904</v>
-      </c>
-      <c r="H16" s="2">
-        <v>4.7070689655172444</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3.7731724137931022</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3.1561290322580642</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.7655806451612901</v>
-      </c>
-      <c r="L16" s="2">
-        <v>6.7753437499999993</v>
-      </c>
-      <c r="M16" s="2">
-        <v>41.596790322580652</v>
-      </c>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2066</v>
-      </c>
-      <c r="B17" s="2">
-        <v>71.930312499999971</v>
-      </c>
-      <c r="C17" s="2">
-        <v>68.337290322580628</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40.595161290322579</v>
-      </c>
-      <c r="E17" s="2">
-        <v>18.739655172413791</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8.8246666666666691</v>
-      </c>
-      <c r="G17" s="2">
-        <v>6.7343333333333337</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5.2389655172413798</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4.2653448275862074</v>
-      </c>
-      <c r="J17" s="2">
-        <v>3.1219354838709692</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.636709677419355</v>
-      </c>
-      <c r="L17" s="2">
-        <v>4.9864838709677404</v>
-      </c>
-      <c r="M17" s="2">
-        <v>14.91935483870968</v>
-      </c>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2067</v>
-      </c>
-      <c r="B18" s="2">
-        <v>74.613806451612916</v>
-      </c>
-      <c r="C18" s="2">
-        <v>74.597451612903228</v>
-      </c>
-      <c r="D18" s="2">
-        <v>55.239032258064533</v>
-      </c>
-      <c r="E18" s="2">
-        <v>17.745000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9.3204827586206864</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6.6146666666666656</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5.0431034482758621</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3.4662666666666668</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.901612903225806</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2.616580645161291</v>
-      </c>
-      <c r="M18" s="2">
-        <v>19.00359375</v>
-      </c>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2068</v>
-      </c>
-      <c r="B19" s="2">
-        <v>68.271874999999994</v>
-      </c>
-      <c r="C19" s="2">
-        <v>70.300648387096786</v>
-      </c>
-      <c r="D19" s="2">
-        <v>50.331800000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>16.4087</v>
-      </c>
-      <c r="F19" s="2">
-        <v>8.6084137931034483</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6.8869333333333334</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5.7915172413793092</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4.1528666666666663</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3.6642000000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2.6076129032258062</v>
-      </c>
-      <c r="L19" s="2">
-        <v>5.5824193548387102</v>
-      </c>
-      <c r="M19" s="2">
-        <v>36.650281249999999</v>
-      </c>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2069</v>
-      </c>
-      <c r="B20" s="2">
-        <v>64.819249999999997</v>
-      </c>
-      <c r="C20" s="2">
-        <v>65.475225806451604</v>
-      </c>
-      <c r="D20" s="2">
-        <v>39.759233333333341</v>
-      </c>
-      <c r="E20" s="2">
-        <v>13.71773333333333</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7.6434333333333369</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5.7699655172413786</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5.6343793103448272</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="J20" s="2">
-        <v>3.008419354838709</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2.0742258064516128</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.5539375</v>
-      </c>
-      <c r="M20" s="2">
-        <v>19.604129032258069</v>
-      </c>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2070</v>
-      </c>
-      <c r="B21" s="2">
-        <v>110.64565625</v>
-      </c>
-      <c r="C21" s="2">
-        <v>76.755193548387084</v>
-      </c>
-      <c r="D21" s="2">
-        <v>30.80583870967742</v>
-      </c>
-      <c r="E21" s="2">
-        <v>18.603137931034482</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.7732666666666663</v>
-      </c>
-      <c r="G21" s="2">
-        <v>7.133700000000001</v>
-      </c>
-      <c r="H21" s="2">
-        <v>6.5141724137931014</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5.4528333333333334</v>
-      </c>
-      <c r="J21" s="2">
-        <v>3.9568999999999979</v>
-      </c>
-      <c r="K21" s="2">
-        <v>3.334516129032258</v>
-      </c>
-      <c r="L21" s="2">
-        <v>11.669774193548379</v>
-      </c>
-      <c r="M21" s="2">
-        <v>70.99464516129035</v>
-      </c>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2071</v>
-      </c>
-      <c r="B22" s="2">
-        <v>73.940290322580637</v>
-      </c>
-      <c r="C22" s="2">
-        <v>59.781000000000013</v>
-      </c>
-      <c r="D22" s="2">
-        <v>34.140419354838713</v>
-      </c>
-      <c r="E22" s="2">
-        <v>16.52086666666667</v>
-      </c>
-      <c r="F22" s="2">
-        <v>9.0616206896551716</v>
-      </c>
-      <c r="G22" s="2">
-        <v>8.2641666666666662</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6.0609999999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5.6435333333333348</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5.0915666666666661</v>
-      </c>
-      <c r="K22" s="2">
-        <v>2.419451612903226</v>
-      </c>
-      <c r="L22" s="2">
-        <v>3.773903225806452</v>
-      </c>
-      <c r="M22" s="2">
-        <v>20.758343750000002</v>
-      </c>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2072</v>
-      </c>
-      <c r="B23" s="2">
-        <v>67.385406250000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>58.640032258064522</v>
-      </c>
-      <c r="D23" s="2">
-        <v>35.21423333333334</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12.8948</v>
-      </c>
-      <c r="F23" s="2">
-        <v>7.8916551724137944</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5.9090333333333351</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5.2724137931034507</v>
-      </c>
-      <c r="I23" s="2">
-        <v>3.939133333333332</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3.2854999999999999</v>
-      </c>
-      <c r="K23" s="2">
-        <v>4.7670322580645177</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2.6033124999999999</v>
-      </c>
-      <c r="M23" s="2">
-        <v>18.765677419354841</v>
-      </c>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2073</v>
-      </c>
-      <c r="B24" s="2">
-        <v>130.71284374999999</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44.635580645161298</v>
-      </c>
-      <c r="D24" s="2">
-        <v>54.539133333333332</v>
-      </c>
-      <c r="E24" s="2">
-        <v>22.448299999999989</v>
-      </c>
-      <c r="F24" s="2">
-        <v>10.109500000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <v>6.9718965517241376</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5.7861379310344816</v>
-      </c>
-      <c r="I24" s="2">
-        <v>4.8101290322580654</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4.1911290322580648</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2.5699677419354829</v>
-      </c>
-      <c r="L24" s="2">
-        <v>5.4387499999999998</v>
-      </c>
-      <c r="M24" s="2">
-        <v>44.828580645161303</v>
-      </c>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2074</v>
-      </c>
-      <c r="B25" s="2">
-        <v>68.643062500000013</v>
-      </c>
-      <c r="C25" s="2">
-        <v>57.671322580645153</v>
-      </c>
-      <c r="D25" s="2">
-        <v>39.636774193548391</v>
-      </c>
-      <c r="E25" s="2">
-        <v>13.7182</v>
-      </c>
-      <c r="F25" s="2">
-        <v>7.6512068965517228</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5.6863666666666663</v>
-      </c>
-      <c r="H25" s="2">
-        <v>4.8135862068965514</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3.7614999999999998</v>
-      </c>
-      <c r="J25" s="2">
-        <v>4.2008333333333328</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5.0850967741935467</v>
-      </c>
-      <c r="L25" s="2">
-        <v>6.3417741935483862</v>
-      </c>
-      <c r="M25" s="2">
-        <v>55.599935483870958</v>
-      </c>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2075</v>
-      </c>
-      <c r="B26" s="2">
-        <v>48.653387096774203</v>
-      </c>
-      <c r="C26" s="2">
-        <v>64.625967741935469</v>
-      </c>
-      <c r="D26" s="2">
-        <v>23.309967741935491</v>
-      </c>
-      <c r="E26" s="2">
-        <v>10.54673333333333</v>
-      </c>
-      <c r="F26" s="2">
-        <v>6.6558965517241386</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5.3209999999999997</v>
-      </c>
-      <c r="H26" s="2">
-        <v>6.12351724137931</v>
-      </c>
-      <c r="I26" s="2">
-        <v>5.4974999999999996</v>
-      </c>
-      <c r="J26" s="2">
-        <v>4.2669666666666659</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2.6687096774193542</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3.5379999999999998</v>
-      </c>
-      <c r="M26" s="2">
-        <v>9.4121249999999996</v>
-      </c>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2076</v>
-      </c>
-      <c r="B27" s="2">
-        <v>41.2280625</v>
-      </c>
-      <c r="C27" s="2">
-        <v>63.799258064516131</v>
-      </c>
-      <c r="D27" s="2">
-        <v>47.028033333333319</v>
-      </c>
-      <c r="E27" s="2">
-        <v>15.19653333333334</v>
-      </c>
-      <c r="F27" s="2">
-        <v>8.1431666666666658</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6.3187931034482752</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6.0484137931034478</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5.3208666666666664</v>
-      </c>
-      <c r="J27" s="2">
-        <v>4.8971</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2.863967741935483</v>
-      </c>
-      <c r="L27" s="2">
-        <v>3.1744062499999992</v>
-      </c>
-      <c r="M27" s="2">
-        <v>14.810838709677419</v>
-      </c>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2077</v>
-      </c>
-      <c r="B28" s="2">
-        <v>83.259031249999992</v>
-      </c>
-      <c r="C28" s="2">
-        <v>81.706580645161324</v>
-      </c>
-      <c r="D28" s="2">
-        <v>56.914733333333317</v>
-      </c>
-      <c r="E28" s="2">
-        <v>16.99123333333333</v>
-      </c>
-      <c r="F28" s="2">
-        <v>8.4158200000000019</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6.1162758620689663</v>
-      </c>
-      <c r="H28" s="2">
-        <v>4.8080999999999996</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3.7779655172413791</v>
-      </c>
-      <c r="J28" s="2">
-        <v>3.0910322580645162</v>
-      </c>
-      <c r="K28" s="2">
-        <v>8.2467741935483865</v>
-      </c>
-      <c r="L28" s="2">
-        <v>8.8260312499999998</v>
-      </c>
-      <c r="M28" s="2">
-        <v>73.217903225806452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2078</v>
-      </c>
-      <c r="B29" s="2">
-        <v>73.540187500000002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>104.51203225806449</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45.665645161290328</v>
-      </c>
-      <c r="E29" s="2">
-        <v>39.51700000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>14.67658620689655</v>
-      </c>
-      <c r="G29" s="2">
-        <v>9.4721666666666628</v>
-      </c>
-      <c r="H29" s="2">
-        <v>8.0347586206896562</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5.8133666666666661</v>
-      </c>
-      <c r="J29" s="2">
-        <v>4.210700000000001</v>
-      </c>
-      <c r="K29" s="2">
-        <v>5.307483870967741</v>
-      </c>
-      <c r="L29" s="2">
-        <v>8.0459999999999994</v>
-      </c>
-      <c r="M29" s="2">
-        <v>56.021225806451611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2079</v>
-      </c>
-      <c r="B30" s="2">
-        <v>53.415225806451602</v>
-      </c>
-      <c r="C30" s="2">
-        <v>54.419387096774187</v>
-      </c>
-      <c r="D30" s="2">
-        <v>83.805322580645154</v>
-      </c>
-      <c r="E30" s="2">
-        <v>27.691099999999999</v>
-      </c>
-      <c r="F30" s="2">
-        <v>10.800586206896551</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>5.4619354838709686</v>
-      </c>
-      <c r="L30" s="2">
-        <v>7.3120000000000012</v>
-      </c>
-      <c r="M30" s="2">
-        <v>29.324718749999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4">
-        <f t="shared" ref="B31:M31" si="2">AVERAGE(B2:B30)</f>
-        <v>75.013955943680386</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="2"/>
-        <v>75.34449486002967</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="2"/>
-        <v>43.924590174267706</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="2"/>
-        <v>16.979640903686089</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="2"/>
-        <v>9.0721618866428848</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="2"/>
-        <v>6.6633066912972074</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="2"/>
-        <v>5.7210895320197039</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="2"/>
-        <v>4.8134951665872121</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="2"/>
-        <v>3.9982712863401026</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6901323178016732</v>
-      </c>
-      <c r="L31" s="4">
-        <f t="shared" si="2"/>
-        <v>6.3822742343607164</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="2"/>
-        <v>36.221704014256908</v>
+      <c r="D55" s="11">
+        <f>AVERAGE(D43:D54)</f>
+        <v>25.268435394830288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="40" max="12" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11618,10 +11474,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11866,7 +11722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
